--- a/Crawling/crawling_data/day_genie/day_genie_20220104.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220104.xlsx
@@ -205,8 +205,7 @@
     <t>그게 더 편할 것 같아 (N번째 연애 X 멜로망스)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>죽을 만큼 아파서 (Feat. JAMIE (제이미))</t>
